--- a/public/complementFiles/carga.xlsx
+++ b/public/complementFiles/carga.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoxi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\universalpet\public\complementFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9364C98-D5B0-44D8-B4DC-902325269E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994A314C-0855-4FCC-A924-ED1D0AA061D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D00F1DF-9DFA-4AB7-B37A-29D36BD7818E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="172">
   <si>
     <t>codigo</t>
   </si>
@@ -60,9 +60,6 @@
     <t>AL</t>
   </si>
   <si>
-    <t>prueba excel</t>
-  </si>
-  <si>
     <t>2023-05-02</t>
   </si>
   <si>
@@ -70,6 +67,480 @@
   </si>
   <si>
     <t>AL00008</t>
+  </si>
+  <si>
+    <t>AL00001</t>
+  </si>
+  <si>
+    <t>AL00002</t>
+  </si>
+  <si>
+    <t>AL00003</t>
+  </si>
+  <si>
+    <t>AL00004</t>
+  </si>
+  <si>
+    <t>AL00005</t>
+  </si>
+  <si>
+    <t>AL00006</t>
+  </si>
+  <si>
+    <t>AL00009</t>
+  </si>
+  <si>
+    <t>AL00010</t>
+  </si>
+  <si>
+    <t>AL00011</t>
+  </si>
+  <si>
+    <t>AL00012</t>
+  </si>
+  <si>
+    <t>AL00013</t>
+  </si>
+  <si>
+    <t>AL00014</t>
+  </si>
+  <si>
+    <t>AL00015</t>
+  </si>
+  <si>
+    <t>AL00016</t>
+  </si>
+  <si>
+    <t>AL00017</t>
+  </si>
+  <si>
+    <t>AL00018</t>
+  </si>
+  <si>
+    <t>AL00019</t>
+  </si>
+  <si>
+    <t>AL00020</t>
+  </si>
+  <si>
+    <t>AL00021</t>
+  </si>
+  <si>
+    <t>AL00022</t>
+  </si>
+  <si>
+    <t>AL00023</t>
+  </si>
+  <si>
+    <t>AL00024</t>
+  </si>
+  <si>
+    <t>AL00025</t>
+  </si>
+  <si>
+    <t>AL00026</t>
+  </si>
+  <si>
+    <t>AL00027</t>
+  </si>
+  <si>
+    <t>AL00028</t>
+  </si>
+  <si>
+    <t>AL00029</t>
+  </si>
+  <si>
+    <t>AL00030</t>
+  </si>
+  <si>
+    <t>AL00031</t>
+  </si>
+  <si>
+    <t>AL00032</t>
+  </si>
+  <si>
+    <t>AL00033</t>
+  </si>
+  <si>
+    <t>AL00034</t>
+  </si>
+  <si>
+    <t>AL00035</t>
+  </si>
+  <si>
+    <t>AL00036</t>
+  </si>
+  <si>
+    <t>AL00037</t>
+  </si>
+  <si>
+    <t>AL00038</t>
+  </si>
+  <si>
+    <t>AL00039</t>
+  </si>
+  <si>
+    <t>AL00040</t>
+  </si>
+  <si>
+    <t>AL00041</t>
+  </si>
+  <si>
+    <t>AL00042</t>
+  </si>
+  <si>
+    <t>AL00043</t>
+  </si>
+  <si>
+    <t>AL00044</t>
+  </si>
+  <si>
+    <t>AL00045</t>
+  </si>
+  <si>
+    <t>AL00046</t>
+  </si>
+  <si>
+    <t>AL00047</t>
+  </si>
+  <si>
+    <t>AL00048</t>
+  </si>
+  <si>
+    <t>AL00049</t>
+  </si>
+  <si>
+    <t>AL00050</t>
+  </si>
+  <si>
+    <t>AL00051</t>
+  </si>
+  <si>
+    <t>AL00052</t>
+  </si>
+  <si>
+    <t>AL00053</t>
+  </si>
+  <si>
+    <t>AL00054</t>
+  </si>
+  <si>
+    <t>AL00055</t>
+  </si>
+  <si>
+    <t>AL00056</t>
+  </si>
+  <si>
+    <t>AL00057</t>
+  </si>
+  <si>
+    <t>AL00058</t>
+  </si>
+  <si>
+    <t>AL00059</t>
+  </si>
+  <si>
+    <t>AL00060</t>
+  </si>
+  <si>
+    <t>AL00061</t>
+  </si>
+  <si>
+    <t>AL00062</t>
+  </si>
+  <si>
+    <t>AL00063</t>
+  </si>
+  <si>
+    <t>AL00064</t>
+  </si>
+  <si>
+    <t>AL00065</t>
+  </si>
+  <si>
+    <t>AL00066</t>
+  </si>
+  <si>
+    <t>AL00067</t>
+  </si>
+  <si>
+    <t>AL00068</t>
+  </si>
+  <si>
+    <t>AL00069</t>
+  </si>
+  <si>
+    <t>AL00070</t>
+  </si>
+  <si>
+    <t>AL00071</t>
+  </si>
+  <si>
+    <t>AL00072</t>
+  </si>
+  <si>
+    <t>AL00073</t>
+  </si>
+  <si>
+    <t>AL00074</t>
+  </si>
+  <si>
+    <t>AL00075</t>
+  </si>
+  <si>
+    <t>AL00076</t>
+  </si>
+  <si>
+    <t>AL00077</t>
+  </si>
+  <si>
+    <t>AL00078</t>
+  </si>
+  <si>
+    <t>AL00079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agility grandes adulto </t>
+  </si>
+  <si>
+    <t>cabano surtido x 1kg</t>
+  </si>
+  <si>
+    <t>cat chow carne x 1.5 kg</t>
+  </si>
+  <si>
+    <t>cat chow gatitos x 1.5 500gr</t>
+  </si>
+  <si>
+    <t>cat chow gatitos x 1.5 promo pag2lle3</t>
+  </si>
+  <si>
+    <t>cat chow pescado x 8 kg</t>
+  </si>
+  <si>
+    <t>chunky AD RP x 500gr</t>
+  </si>
+  <si>
+    <t>chunky AD x 2kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chunky adulto dog x 25 gg </t>
+  </si>
+  <si>
+    <t>chunky CACH cordero x 1.5kg</t>
+  </si>
+  <si>
+    <t>chunky CACH dog x 18 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chunky CACH x 2 kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chunky gaticos x 1.5kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chunky gatos pollo x 1.5 kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coquito surtido x 1kg </t>
+  </si>
+  <si>
+    <t>DC pouch sur AD RP</t>
+  </si>
+  <si>
+    <t>DC pouch sur AD TDTM</t>
+  </si>
+  <si>
+    <t>delidog dent x 1 kg</t>
+  </si>
+  <si>
+    <t>delidog mix x1</t>
+  </si>
+  <si>
+    <t>dog chow AD RP x 4 kg</t>
+  </si>
+  <si>
+    <t>dog chow AD x 22.7  kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dogourmet CACH dog x 25 kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dogourmet carne dog x 25 kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">donkat adulto x 1 kg </t>
+  </si>
+  <si>
+    <t>donkat adulto x 500 gr</t>
+  </si>
+  <si>
+    <t>donkat gaticos x 500gr</t>
+  </si>
+  <si>
+    <t>felix lata surtido pack 6 x 156gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">felix pouch surtido pack </t>
+  </si>
+  <si>
+    <t>galleta x1 kg</t>
+  </si>
+  <si>
+    <t>hills c adult small paws L&amp;R x 4.5 lb</t>
+  </si>
+  <si>
+    <t>hills c lata I/D x 13oz</t>
+  </si>
+  <si>
+    <t>hills f lata I/d 5.5oz</t>
+  </si>
+  <si>
+    <t>max AD performance pollo x 20 kg</t>
+  </si>
+  <si>
+    <t>max AD RP performance pollo x 8 kg</t>
+  </si>
+  <si>
+    <t>max filhote performance pollo x20 kg</t>
+  </si>
+  <si>
+    <t>mirringo x 8 kg</t>
+  </si>
+  <si>
+    <t>molidos hueso surtidos 3-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molidos hueso surtidos 4-5 </t>
+  </si>
+  <si>
+    <t>monello CACH x 25 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monello gatito x 1 kg </t>
+  </si>
+  <si>
+    <t>monello gato AD x 15 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monello RP x 1 kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monello select gato cast x 2kg </t>
+  </si>
+  <si>
+    <t>monello trad x 1kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nutra mantenimiento dog x 3 kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nutra mantenimiento gatos x 3 kg </t>
+  </si>
+  <si>
+    <t>oh maigat inquietos 500gr</t>
+  </si>
+  <si>
+    <t>oh maigat sedentarios 500gr</t>
+  </si>
+  <si>
+    <t>ohmaigat caseros 500gr</t>
+  </si>
+  <si>
+    <t>ohmaigat gatitos juguetones 500gr</t>
+  </si>
+  <si>
+    <t>optimum cat AD pollo x 85gr</t>
+  </si>
+  <si>
+    <t>optimum cat castrado pollo x 85gr</t>
+  </si>
+  <si>
+    <t>optimum dog AD pollo x 100gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimum dog cachorro pollo x 100gr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimum dog RP pollo x 100gr </t>
+  </si>
+  <si>
+    <t>pedigree dentastix RM X 25.7gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedigree dentastix RM x 77.1 gr </t>
+  </si>
+  <si>
+    <t>pedigree dentastix RP x 15.7gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedigree pouch AD carne x 100gr </t>
+  </si>
+  <si>
+    <t>pedigree pouch AD cerdo y res x 85gr</t>
+  </si>
+  <si>
+    <t>pedigree pouch AD pollo x 100gr</t>
+  </si>
+  <si>
+    <t>pedigree pouch AD pollo y cerdo x 85gr</t>
+  </si>
+  <si>
+    <t>pedigree pouch AD res y pollo x 85gr</t>
+  </si>
+  <si>
+    <t>pedigree pouch CACH pollo x 100gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedigree pouch RP carne x 100 gr </t>
+  </si>
+  <si>
+    <t>pedigree pouch RP pollo x 100gr</t>
+  </si>
+  <si>
+    <t>repues bombonera bola de pelo x 350gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ringo adulto dog x 30 kg </t>
+  </si>
+  <si>
+    <t>ringo cachorro dog x 30 kg</t>
+  </si>
+  <si>
+    <t>ringo premium AD dog x 30 kg</t>
+  </si>
+  <si>
+    <t>ringo premium cachorro dog x 30 kg</t>
+  </si>
+  <si>
+    <t>whiskas pouch atun x 85 gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whiskas pouch carne x 85 gr </t>
+  </si>
+  <si>
+    <t>whiskas pouch castrados AD carne x 85gr</t>
+  </si>
+  <si>
+    <t>whiskas pouch castrados AD pescado x 85gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whiskas pouch gatitos atun x 85gr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">whiskas pouch gatitos carne x 85gr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">whiskas pouch pollo x 85gr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">whiskas pouch salmon x 85gr </t>
+  </si>
+  <si>
+    <t>whiskas seco gatitos x 1.4</t>
+  </si>
+  <si>
+    <t>AL00080</t>
   </si>
 </sst>
 </file>
@@ -437,17 +908,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C8D35F-0999-4F62-8E4D-F2AC2E298A66}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -481,60 +954,2322 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
-        <v>1000</v>
+        <v>27079</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>300</v>
+        <v>8123.7</v>
       </c>
       <c r="H2" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>1300</v>
+        <v>35202.699999999997</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7012</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2103.6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9115.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>26843</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8052.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>34895.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28257</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8477.1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>36734.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>56514</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16954.2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>73468.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>83900</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>25170</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>109070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3803</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1140.8999999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4943.8999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>300</v>
-      </c>
-      <c r="H3" s="1">
-        <v>250</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1300</v>
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>13180</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3954</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>17134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>132347</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>39704.1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>172051.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>24176</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7252.8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>31428.799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>121302</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>36390.6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>157692.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16339</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4901.7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>21240.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18815</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5644.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>24459.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>17518</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5255.4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>22773.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7012</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2103.6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9115.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9802</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2940.6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
+        <v>12742.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9802</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2940.6</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>12742.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>21657</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6497.0999999999995</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>28154.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>36673</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>11001.9</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>47674.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>31713</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>9513.9</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>41226.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1">
+        <v>151954</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45586.2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>197540.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
+        <v>171470</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1">
+        <v>51441</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>222911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <v>159431</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>47829.299999999996</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>207260.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8474</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2542.1999999999998</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>11016.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4361</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1308.3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5669.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4513</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1353.8999999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5866.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1">
+        <v>25034</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7510.2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>32544.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9881</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2964.2999999999997</v>
+      </c>
+      <c r="H29" s="1">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1">
+        <v>12845.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7012</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2103.6</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>9115.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>78632</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1">
+        <v>23589.599999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>102221.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1">
+        <v>21368</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1">
+        <v>6410.4</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>27778.400000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1">
+        <v>12316</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3694.7999999999997</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>16010.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1">
+        <v>268071</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1">
+        <v>80421.3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>348492.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1">
+        <v>118997</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1">
+        <v>35699.1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>154696.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1">
+        <v>285313</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1">
+        <v>85593.9</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>370906.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1">
+        <v>60438</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1">
+        <v>18131.399999999998</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>78569.399999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1">
+        <v>14836</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4450.8</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>19286.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1">
+        <v>14836</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1">
+        <v>4450.8</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>19286.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1">
+        <v>252700</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1">
+        <v>75810</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>328510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1">
+        <v>20200</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1">
+        <v>6060</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>26260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1">
+        <v>202900</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1">
+        <v>60870</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>263770</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1">
+        <v>13500</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4050</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1">
+        <v>92000</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1">
+        <v>27600</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>119600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1">
+        <v>12100</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3630</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>15730</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1">
+        <v>43619</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="1">
+        <v>13085.699999999999</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>56704.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44524</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1">
+        <v>13357.199999999999</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>57881.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1">
+        <v>9177</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2753.1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>11930.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1">
+        <v>9177</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2753.1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>11930.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1">
+        <v>9177</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2753.1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>11930.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9898</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2969.4</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1">
+        <v>12867.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3065</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1">
+        <v>919.5</v>
+      </c>
+      <c r="H52" s="1">
+        <v>3</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3984.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3065</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1">
+        <v>919.5</v>
+      </c>
+      <c r="H53" s="1">
+        <v>3</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3984.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3065</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1">
+        <v>919.5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3984.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3065</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1">
+        <v>919.5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3984.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3065</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="1">
+        <v>919.5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1">
+        <v>3984.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3385</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1015.5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4400.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1">
+        <v>9323</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2796.9</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>12119.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3001</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="1">
+        <v>900.3</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3901.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H60" s="1">
+        <v>3</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H61" s="1">
+        <v>3</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H62" s="1">
+        <v>3</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H64" s="1">
+        <v>3</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H65" s="1">
+        <v>3</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H66" s="1">
+        <v>3</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H67" s="1">
+        <v>3</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1">
+        <v>10971</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3291.2999999999997</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2</v>
+      </c>
+      <c r="I68" s="1">
+        <v>14262.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="1">
+        <v>115887</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="1">
+        <v>34766.1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>150653.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="1">
+        <v>134372</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="1">
+        <v>40311.599999999999</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>174683.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1">
+        <v>140873</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="1">
+        <v>42261.9</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>183134.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1">
+        <v>169047</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="1">
+        <v>50714.1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>219761.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H73" s="1">
+        <v>3</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H74" s="1">
+        <v>3</v>
+      </c>
+      <c r="I74" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H75" s="1">
+        <v>4</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H76" s="1">
+        <v>4</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H77" s="1">
+        <v>4</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H78" s="1">
+        <v>4</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H79" s="1">
+        <v>4</v>
+      </c>
+      <c r="I79" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="1">
+        <v>691.19999999999993</v>
+      </c>
+      <c r="H80" s="1">
+        <v>4</v>
+      </c>
+      <c r="I80" s="1">
+        <v>2995.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="1">
+        <v>23305</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="1">
+        <v>6991.5</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>30296.5</v>
       </c>
     </row>
   </sheetData>
